--- a/data/Balanco_Agua_Potavel.xlsx
+++ b/data/Balanco_Agua_Potavel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3108C77C-0D1C-4787-BA77-01A74ECAACB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8032B-96B7-45A1-AB05-4B357E95A2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65144E90-7B7A-4BF5-A61F-F10ECC7B4D11}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Designação:</t>
   </si>
@@ -111,12 +111,15 @@
   <si>
     <t>Perdas Reais</t>
   </si>
+  <si>
+    <t>www.lisboaenova.org | www.observatorios-lisboa.pt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +136,67 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +209,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,11 +245,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF74BA9C"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -186,8 +270,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -203,8 +299,152 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1904999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Agrupar 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A675E63-171F-4CB0-9557-F0922307E56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="66675"/>
+          <a:ext cx="2733674" cy="590550"/>
+          <a:chOff x="571501" y="47625"/>
+          <a:chExt cx="2733674" cy="590550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Imagem 3" descr="Logo Observatórios Lisboa">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D4C0E0-A119-4636-850C-07BA2A1569D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:duotone>
+              <a:schemeClr val="bg2">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:brightnessContrast bright="73000" contrast="100000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2105026" y="161927"/>
+            <a:ext cx="1200149" cy="398680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Imagem 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34084555-0B3C-406C-B5EB-4079CA383698}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="10000"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571501" y="47625"/>
+            <a:ext cx="1235726" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FCB1F9-6FBB-415C-ACA8-35B58A1620DA}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,300 +763,315 @@
     <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="12.75">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:7" ht="17.25">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1"/>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="30">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1"/>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="30">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
-      <c r="A5" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="2">
-        <v>109600</v>
-      </c>
-      <c r="C5" s="2">
-        <v>34900</v>
-      </c>
-      <c r="D5" s="2">
-        <v>74700</v>
-      </c>
-      <c r="E5" s="2">
-        <v>11200</v>
-      </c>
-      <c r="F5" s="2">
-        <v>63500</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1">
-      <c r="A6" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B6" s="2">
-        <v>114100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>40400</v>
-      </c>
-      <c r="D6" s="2">
-        <v>73700</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10600</v>
-      </c>
-      <c r="F6" s="2">
-        <v>63100</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
-      <c r="A7" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="2">
-        <v>118400</v>
-      </c>
-      <c r="C7" s="2">
-        <v>46800</v>
-      </c>
-      <c r="D7" s="2">
-        <v>71600</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9900</v>
-      </c>
-      <c r="F7" s="2">
-        <v>61700.000000000007</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1">
-      <c r="A8" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B8" s="2">
-        <v>112000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45400</v>
-      </c>
-      <c r="D8" s="2">
-        <v>66600</v>
-      </c>
-      <c r="E8" s="2">
-        <v>8200</v>
-      </c>
-      <c r="F8" s="2">
-        <v>58400</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="2">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B9" s="2">
-        <v>103700</v>
+        <v>109600</v>
       </c>
       <c r="C9" s="2">
-        <v>40800</v>
+        <v>34900</v>
       </c>
       <c r="D9" s="2">
-        <v>62900</v>
+        <v>74700</v>
       </c>
       <c r="E9" s="2">
-        <v>6900</v>
+        <v>11200</v>
       </c>
       <c r="F9" s="2">
-        <v>56000</v>
+        <v>63500</v>
       </c>
       <c r="G9" s="2">
-        <v>2100</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
       <c r="A10" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B10" s="2">
-        <v>103100</v>
+        <v>114100</v>
       </c>
       <c r="C10" s="2">
-        <v>42200</v>
+        <v>40400</v>
       </c>
       <c r="D10" s="2">
-        <v>60900</v>
+        <v>73700</v>
       </c>
       <c r="E10" s="2">
-        <v>5500</v>
+        <v>10600</v>
       </c>
       <c r="F10" s="2">
-        <v>55400</v>
+        <v>63100</v>
       </c>
       <c r="G10" s="2">
-        <v>2600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B11" s="2">
-        <v>101120</v>
+        <v>118400</v>
       </c>
       <c r="C11" s="2">
-        <v>40530</v>
+        <v>46800</v>
       </c>
       <c r="D11" s="2">
-        <v>60590</v>
+        <v>71600</v>
       </c>
       <c r="E11" s="2">
-        <v>5200</v>
+        <v>9900</v>
       </c>
       <c r="F11" s="2">
-        <v>55390</v>
+        <v>61700.000000000007</v>
       </c>
       <c r="G11" s="2">
-        <v>3000</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="2">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B12" s="2">
-        <v>102200</v>
+        <v>112000</v>
       </c>
       <c r="C12" s="2">
-        <v>40410</v>
+        <v>45400</v>
       </c>
       <c r="D12" s="2">
-        <v>61780</v>
+        <v>66600</v>
       </c>
       <c r="E12" s="2">
-        <v>5290</v>
+        <v>8200</v>
       </c>
       <c r="F12" s="2">
-        <v>56490</v>
+        <v>58400</v>
       </c>
       <c r="G12" s="2">
-        <v>3440</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B13" s="2">
-        <v>98160</v>
+        <v>103700</v>
       </c>
       <c r="C13" s="2">
-        <v>36580</v>
+        <v>40800</v>
       </c>
       <c r="D13" s="2">
-        <v>61580</v>
+        <v>62900</v>
       </c>
       <c r="E13" s="2">
-        <v>5550</v>
+        <v>6900</v>
       </c>
       <c r="F13" s="2">
-        <v>56020</v>
+        <v>56000</v>
       </c>
       <c r="G13" s="2">
-        <v>4650</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
       <c r="A14" s="2">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B14" s="2">
-        <v>99660</v>
+        <v>103100</v>
       </c>
       <c r="C14" s="2">
-        <v>36770</v>
+        <v>42200</v>
       </c>
       <c r="D14" s="2">
-        <v>62890</v>
+        <v>60900</v>
       </c>
       <c r="E14" s="2">
-        <v>5580</v>
+        <v>5500</v>
       </c>
       <c r="F14" s="2">
-        <v>57310</v>
+        <v>55400</v>
       </c>
       <c r="G14" s="2">
-        <v>5330</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="2">
+        <v>101120</v>
+      </c>
+      <c r="C15" s="2">
+        <v>40530</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60590</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5200</v>
+      </c>
+      <c r="F15" s="2">
+        <v>55390</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1">
+      <c r="A16" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="2">
+        <v>102200</v>
+      </c>
+      <c r="C16" s="2">
+        <v>40410</v>
+      </c>
+      <c r="D16" s="2">
+        <v>61780</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5290</v>
+      </c>
+      <c r="F16" s="2">
+        <v>56490</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1">
+      <c r="A17" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="2">
+        <v>98160</v>
+      </c>
+      <c r="C17" s="2">
+        <v>36580</v>
+      </c>
+      <c r="D17" s="2">
+        <v>61580</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5550</v>
+      </c>
+      <c r="F17" s="2">
+        <v>56020</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1">
+      <c r="A18" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="2">
+        <v>99660</v>
+      </c>
+      <c r="C18" s="2">
+        <v>36770</v>
+      </c>
+      <c r="D18" s="2">
+        <v>62890</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5580</v>
+      </c>
+      <c r="F18" s="2">
+        <v>57310</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1">
+      <c r="A19" s="2">
         <v>2018</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B19" s="2">
         <v>93500</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C19" s="2">
         <v>33900</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D19" s="2">
         <v>59600</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E19" s="2">
         <v>4900</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F19" s="2">
         <v>54700</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G19" s="2">
         <v>4700</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Balanco_Agua_Potavel.xlsx
+++ b/data/Balanco_Agua_Potavel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8032B-96B7-45A1-AB05-4B357E95A2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B615682-B36B-449D-B24E-1F079544E6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65144E90-7B7A-4BF5-A61F-F10ECC7B4D11}"/>
   </bookViews>

--- a/data/Balanco_Agua_Potavel.xlsx
+++ b/data/Balanco_Agua_Potavel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizagua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B615682-B36B-449D-B24E-1F079544E6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43EF7CA-CF27-4B9E-A24B-233E7DDF9B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65144E90-7B7A-4BF5-A61F-F10ECC7B4D11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65144E90-7B7A-4BF5-A61F-F10ECC7B4D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Balanço_Água_Potável" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -330,7 +332,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2758439" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -744,23 +746,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FCB1F9-6FBB-415C-ACA8-35B58A1620DA}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="39" customHeight="1">
@@ -770,7 +772,7 @@
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="12.75">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="13.8">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -785,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25">
+    <row r="6" spans="1:7" ht="16.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -794,7 +796,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1"/>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="30">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1068,6 +1070,29 @@
       </c>
       <c r="G19" s="2">
         <v>4700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1">
+      <c r="A20" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="2">
+        <v>89600</v>
+      </c>
+      <c r="C20" s="2">
+        <v>29900</v>
+      </c>
+      <c r="D20" s="2">
+        <v>59600</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4700</v>
+      </c>
+      <c r="F20" s="2">
+        <v>55000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4200</v>
       </c>
     </row>
   </sheetData>
